--- a/service/students_list.xlsx
+++ b/service/students_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,22 +410,25 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
+        <v>price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>status</v>
+      </c>
+      <c r="E1" t="str">
+        <v>date</v>
+      </c>
+      <c r="F1" t="str">
+        <v>dob</v>
+      </c>
+      <c r="G1" t="str">
+        <v>address</v>
+      </c>
+      <c r="H1" t="str">
         <v>gender</v>
       </c>
-      <c r="D1" t="str">
-        <v>price</v>
-      </c>
-      <c r="E1" t="str">
-        <v>status</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>paymentDate</v>
-      </c>
-      <c r="G1" t="str">
-        <v>dob</v>
-      </c>
-      <c r="H1" t="str">
-        <v>address</v>
       </c>
     </row>
     <row r="2">
@@ -435,23 +438,23 @@
       <c r="B2" t="str">
         <v>nhat minh</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
+        <v>1700000</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Chưa hoàn thành</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>Đan Phương</v>
+      </c>
+      <c r="H2" t="str">
         <v>Nam</v>
-      </c>
-      <c r="D2">
-        <v>1700000</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F2" t="str">
-        <v>2024-07-11</v>
-      </c>
-      <c r="G2" t="str">
-        <v>2003-1-15</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Đan Phương</v>
       </c>
     </row>
     <row r="3">
@@ -461,23 +464,23 @@
       <c r="B3" t="str">
         <v>luu lan</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Chưa hoàn thành</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2003-5-15</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Đan Phương</v>
+      </c>
+      <c r="H3" t="str">
         <v>Nu</v>
       </c>
-      <c r="D3">
-        <v>100000</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="I3" t="str">
         <v>2024-07-21</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2003-5-15</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Đan Phương</v>
       </c>
     </row>
     <row r="4">
@@ -487,23 +490,23 @@
       <c r="B4" t="str">
         <v>thai duong</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
+        <v>500000</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Chưa hoàn thành</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2003-1-5</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Đan Phương</v>
+      </c>
+      <c r="H4" t="str">
         <v>Nam</v>
       </c>
-      <c r="D4">
-        <v>500000</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="I4" t="str">
         <v>2024-07-21</v>
-      </c>
-      <c r="G4" t="str">
-        <v>2003-1-5</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Đan Phương</v>
       </c>
     </row>
     <row r="5">
@@ -513,23 +516,23 @@
       <c r="B5" t="str">
         <v>cvd</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
+        <v>235</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Chưa hoàn thành</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2024-08-02</v>
+      </c>
+      <c r="G5" t="str">
+        <v>ưerdhftjgh</v>
+      </c>
+      <c r="H5" t="str">
         <v>Nam</v>
       </c>
-      <c r="D5">
-        <v>235</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="I5" t="str">
         <v>2024-08-14</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2024-08-02</v>
-      </c>
-      <c r="H5" t="str">
-        <v>ưerdhftjgh</v>
       </c>
     </row>
     <row r="6">
@@ -539,54 +542,54 @@
       <c r="B6" t="str">
         <v>DXT</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
+        <v>235</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Đã hoàn thành</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2024-08-30</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3233</v>
+      </c>
+      <c r="H6" t="str">
         <v>Nam</v>
       </c>
-      <c r="D6">
-        <v>235</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Đã hoàn thành</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="I6" t="str">
         <v>2024-07-11</v>
-      </c>
-      <c r="G6" t="str">
-        <v>2024-08-30</v>
-      </c>
-      <c r="H6" t="str">
-        <v>3233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
-        <v>demo</v>
-      </c>
-      <c r="C7" t="str">
+        <v>user</v>
+      </c>
+      <c r="C7">
+        <v>342342</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Đã hoàn thành</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2024-07-30</v>
+      </c>
+      <c r="G7" t="str">
+        <v>fsdfs</v>
+      </c>
+      <c r="H7" t="str">
         <v>Nam</v>
       </c>
-      <c r="D7">
-        <v>2700000</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Đã hoàn thành</v>
-      </c>
-      <c r="F7" t="str">
-        <v>2024-07-21</v>
-      </c>
-      <c r="G7" t="str">
-        <v>2003-11-15</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Đan Phương</v>
+      <c r="I7" t="str">
+        <v>2024-08-04</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/service/students_list.xlsx
+++ b/service/students_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,183 +413,76 @@
         <v>price</v>
       </c>
       <c r="D1" t="str">
+        <v>paymentDate</v>
+      </c>
+      <c r="E1" t="str">
+        <v>dob</v>
+      </c>
+      <c r="F1" t="str">
+        <v>address</v>
+      </c>
+      <c r="G1" t="str">
+        <v>gender</v>
+      </c>
+      <c r="H1" t="str">
         <v>status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>date</v>
-      </c>
-      <c r="F1" t="str">
-        <v>dob</v>
-      </c>
-      <c r="G1" t="str">
-        <v>address</v>
-      </c>
-      <c r="H1" t="str">
-        <v>gender</v>
-      </c>
-      <c r="I1" t="str">
-        <v>paymentDate</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>nhat minh</v>
+        <v>user</v>
       </c>
       <c r="C2">
-        <v>1700000</v>
+        <v>112312</v>
       </c>
       <c r="D2" t="str">
+        <v>2024-08-10</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2024-08-02</v>
+      </c>
+      <c r="F2" t="str">
+        <v>wqdqq</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Nam</v>
+      </c>
+      <c r="H2" t="str">
         <v>Chưa hoàn thành</v>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v>Đan Phương</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Nam</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>luu lan</v>
+        <v>ẻgerg</v>
       </c>
       <c r="C3">
-        <v>100000</v>
+        <v>12312</v>
       </c>
       <c r="D3" t="str">
+        <v>2024-08-12</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2024-08-13</v>
+      </c>
+      <c r="F3" t="str">
+        <v>wqeqwe</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="H3" t="str">
         <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2003-5-15</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Đan Phương</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Nu</v>
-      </c>
-      <c r="I3" t="str">
-        <v>2024-07-21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="str">
-        <v>thai duong</v>
-      </c>
-      <c r="C4">
-        <v>500000</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F4" t="str">
-        <v>2003-1-5</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Đan Phương</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Nam</v>
-      </c>
-      <c r="I4" t="str">
-        <v>2024-07-21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <v>cvd</v>
-      </c>
-      <c r="C5">
-        <v>235</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Chưa hoàn thành</v>
-      </c>
-      <c r="F5" t="str">
-        <v>2024-08-02</v>
-      </c>
-      <c r="G5" t="str">
-        <v>ưerdhftjgh</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Nam</v>
-      </c>
-      <c r="I5" t="str">
-        <v>2024-08-14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <v>DXT</v>
-      </c>
-      <c r="C6">
-        <v>235</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Đã hoàn thành</v>
-      </c>
-      <c r="F6" t="str">
-        <v>2024-08-30</v>
-      </c>
-      <c r="G6" t="str">
-        <v>3233</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Nam</v>
-      </c>
-      <c r="I6" t="str">
-        <v>2024-07-11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="str">
-        <v>user</v>
-      </c>
-      <c r="C7">
-        <v>342342</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Đã hoàn thành</v>
-      </c>
-      <c r="F7" t="str">
-        <v>2024-07-30</v>
-      </c>
-      <c r="G7" t="str">
-        <v>fsdfs</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Nam</v>
-      </c>
-      <c r="I7" t="str">
-        <v>2024-08-04</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>